--- a/biology/Botanique/Forêt_sacrée_de_Zannoudji/Forêt_sacrée_de_Zannoudji.xlsx
+++ b/biology/Botanique/Forêt_sacrée_de_Zannoudji/Forêt_sacrée_de_Zannoudji.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_sacr%C3%A9e_de_Zannoudji</t>
+          <t>Forêt_sacrée_de_Zannoudji</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La forêt sacrée de Zannoudji est un site naturel et culturel du Bénin situé dans la commune de Zè. C'est l'une des nombreuses forêts sacrées présentes dans le sud du pays, en pays vaudou[1].
+La forêt sacrée de Zannoudji est un site naturel et culturel du Bénin situé dans la commune de Zè. C'est l'une des nombreuses forêts sacrées présentes dans le sud du pays, en pays vaudou.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_sacr%C3%A9e_de_Zannoudji</t>
+          <t>Forêt_sacrée_de_Zannoudji</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Également connue sous le nom de Zannouzoun[2], la forêt sacrée de Zannoudji se trouve dans le département de l'Atlantique. C'est une forêt qui existe depuis les temps ancestraux[3],[4]. Elle est située à environ 16 kilomètres environ du domaine aéroportuaire de Glo-Djigbé. Au départ, elle s'étendait sur plus de cinquante hectares, mais avec l'extension des cités, elle ne compte plus que dix-sept hectares[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Également connue sous le nom de Zannouzoun, la forêt sacrée de Zannoudji se trouve dans le département de l'Atlantique. C'est une forêt qui existe depuis les temps ancestraux,. Elle est située à environ 16 kilomètres environ du domaine aéroportuaire de Glo-Djigbé. Au départ, elle s'étendait sur plus de cinquante hectares, mais avec l'extension des cités, elle ne compte plus que dix-sept hectares.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_sacr%C3%A9e_de_Zannoudji</t>
+          <t>Forêt_sacrée_de_Zannoudji</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est au cœur de cette forêt qu’est né l’ancêtre de tous les Aïzo du sud-Bénin. La forêt sacrée de Zannoudji est le berceau de la civilisation Aïzo[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est au cœur de cette forêt qu’est né l’ancêtre de tous les Aïzo du sud-Bénin. La forêt sacrée de Zannoudji est le berceau de la civilisation Aïzo,.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_sacr%C3%A9e_de_Zannoudji</t>
+          <t>Forêt_sacrée_de_Zannoudji</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Biodiversité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>On y trouve une flore et une faune diversifiées dont entre autres[3],[4]:
-une diversité de plantes, d’arbres, une végétation très riche; dont des espèces de plantes médicinales pour la médecine traditionnelle africaine ; c’est d’ailleurs de cette forêt que le peuple Aïzo tire toutes ses vertus en phytothérapie[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>On y trouve une flore et une faune diversifiées dont entre autres,:
+une diversité de plantes, d’arbres, une végétation très riche; dont des espèces de plantes médicinales pour la médecine traditionnelle africaine ; c’est d’ailleurs de cette forêt que le peuple Aïzo tire toutes ses vertus en phytothérapie.
 une diversité d'animaux (des biches, des antilopes).</t>
         </is>
       </c>
